--- a/simplex_revisado.xlsx
+++ b/simplex_revisado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/acsjunior/Documents/Projects/ppgmne-mnum7078/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4540E55-4BDC-3B40-BB29-56910BC72CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC55E31-CD78-F74D-99F4-81378CC952C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" activeTab="1" xr2:uid="{EAF9DF70-EF61-6647-8354-71546881E2E1}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{EAF9DF70-EF61-6647-8354-71546881E2E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Simplex" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="60">
   <si>
     <t>Max z = 3x1 + 4x2</t>
   </si>
@@ -133,9 +133,6 @@
     <t>Fase 2</t>
   </si>
   <si>
-    <t>Simplex duas fases</t>
-  </si>
-  <si>
     <t>Base</t>
   </si>
   <si>
@@ -206,6 +203,9 @@
   </si>
   <si>
     <t>Portanto, fim da segunda fase.</t>
+  </si>
+  <si>
+    <t>1x1 + 2x2 &gt;= 4</t>
   </si>
 </sst>
 </file>
@@ -286,7 +286,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -383,19 +383,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -436,7 +423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -466,19 +453,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -500,15 +487,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -524,7 +511,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -545,7 +532,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -560,14 +547,14 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -582,21 +569,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -615,16 +602,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -991,8 +969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0E0CC4-01A9-D14C-9388-46A784C5AEB8}">
   <dimension ref="A1:P119"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1000,47 +978,32 @@
     <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="65"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -1066,7 +1029,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -1092,7 +1055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1118,7 +1081,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1144,9 +1107,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -1170,7 +1133,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -1196,16 +1159,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D15" s="1" t="s">
         <v>25</v>
       </c>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -1382,7 +1345,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D21" s="4">
         <v>1</v>
@@ -3192,7 +3155,7 @@
       <c r="C84" s="41">
         <v>2.5</v>
       </c>
-      <c r="D84" s="77">
+      <c r="D84" s="74">
         <f>D75/$C84</f>
         <v>0</v>
       </c>
@@ -3714,7 +3677,7 @@
       <c r="C101" s="41">
         <v>1.4000000000000001</v>
       </c>
-      <c r="D101" s="77">
+      <c r="D101" s="74">
         <f>D92/$C101</f>
         <v>0</v>
       </c>
@@ -4074,7 +4037,7 @@
       <c r="C116" s="59">
         <v>2.5714285714285712</v>
       </c>
-      <c r="D116" s="83">
+      <c r="D116" s="80">
         <f>D108/$C116</f>
         <v>0</v>
       </c>
@@ -4203,9 +4166,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D2:P2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4214,8 +4174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46E01435-9D0E-2B44-A85C-07D10F261D9D}">
   <dimension ref="A1:O130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E130" sqref="E130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4354,7 +4314,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -4590,7 +4550,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D21" s="4">
         <v>1</v>
@@ -4659,37 +4619,37 @@
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B25" s="76" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" s="66" t="s">
+      <c r="B25" s="73" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="66" t="s">
-        <v>37</v>
-      </c>
-      <c r="G25" s="79" t="str">
+      <c r="G25" s="76" t="str">
         <f>D34</f>
         <v>x1</v>
       </c>
-      <c r="H25" s="66" t="s">
+      <c r="H25" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="J25" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="K25" s="71"/>
-      <c r="L25" s="71"/>
-      <c r="M25" s="71"/>
-      <c r="N25" s="68" t="s">
-        <v>47</v>
-      </c>
-      <c r="O25" s="66" t="s">
-        <v>45</v>
+      <c r="J25" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="K25" s="68"/>
+      <c r="L25" s="68"/>
+      <c r="M25" s="68"/>
+      <c r="N25" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="O25" s="63" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B26" s="76" t="s">
+      <c r="B26" s="73" t="s">
         <v>25</v>
       </c>
       <c r="D26" s="3" t="s">
@@ -4712,15 +4672,15 @@
         <v>1</v>
       </c>
       <c r="K26" s="2">
-        <f>J19</f>
+        <f t="shared" ref="K26:M29" si="0">J19</f>
         <v>0</v>
       </c>
       <c r="L26" s="2">
-        <f>K19</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M26" s="2">
-        <f>L19</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N26" s="2">
@@ -4745,7 +4705,7 @@
         <v>1</v>
       </c>
       <c r="H27" s="2">
-        <f t="shared" ref="H27:H29" si="0">O27/N27</f>
+        <f t="shared" ref="H27:H29" si="1">O27/N27</f>
         <v>6</v>
       </c>
       <c r="J27" s="2">
@@ -4753,22 +4713,22 @@
         <v>0</v>
       </c>
       <c r="K27" s="2">
-        <f>J20</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L27" s="2">
-        <f>K20</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M27" s="2">
-        <f>L20</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N27" s="2">
         <v>1</v>
       </c>
       <c r="O27" s="2">
-        <f t="shared" ref="O27:O29" si="1">M20</f>
+        <f t="shared" ref="O27:O29" si="2">M20</f>
         <v>6</v>
       </c>
     </row>
@@ -4785,7 +4745,7 @@
         <v>1</v>
       </c>
       <c r="H28" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="J28" s="2">
@@ -4793,22 +4753,22 @@
         <v>0</v>
       </c>
       <c r="K28" s="2">
-        <f>J21</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L28" s="2">
-        <f>K21</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="M28" s="2">
-        <f>L21</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N28" s="2">
         <v>1</v>
       </c>
       <c r="O28" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -4816,42 +4776,42 @@
       <c r="C29" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="73" t="s">
+      <c r="D29" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="72">
+      <c r="E29" s="69">
         <f>HLOOKUP(D29,$D$16:$M$17,2,0)*-1</f>
         <v>-1</v>
       </c>
-      <c r="G29" s="72">
+      <c r="G29" s="69">
         <f>HLOOKUP(G$25,$D$16:$M$22,7,0)</f>
         <v>2</v>
       </c>
-      <c r="H29" s="72">
+      <c r="H29" s="69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="69">
+        <f>F22</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J29" s="72">
-        <f>F22</f>
-        <v>0</v>
-      </c>
-      <c r="K29" s="72">
-        <f>J22</f>
-        <v>0</v>
-      </c>
-      <c r="L29" s="72">
-        <f>K22</f>
-        <v>0</v>
-      </c>
-      <c r="M29" s="72">
-        <f>L22</f>
-        <v>1</v>
-      </c>
-      <c r="N29" s="72">
+      <c r="L29" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="69">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N29" s="69">
         <v>2</v>
       </c>
-      <c r="O29" s="72">
-        <f t="shared" si="1"/>
+      <c r="O29" s="69">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4863,8 +4823,8 @@
       <c r="N30" s="2"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="J31" s="66" t="s">
-        <v>38</v>
+      <c r="J31" s="63" t="s">
+        <v>37</v>
       </c>
       <c r="K31" s="2">
         <f t="array" ref="K31:N31">MMULT(TRANSPOSE(E26:E29),J26:M29)</f>
@@ -4881,75 +4841,75 @@
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="D33" s="66" t="s">
+      <c r="D33" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="G33" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="J33" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="K33" s="68"/>
+      <c r="L33" s="68"/>
+      <c r="M33" s="68"/>
+      <c r="N33" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="O33" s="63" t="s">
         <v>43</v>
-      </c>
-      <c r="E33" s="66" t="s">
-        <v>42</v>
-      </c>
-      <c r="F33" s="67" t="s">
-        <v>40</v>
-      </c>
-      <c r="G33" s="67" t="s">
-        <v>39</v>
-      </c>
-      <c r="J33" s="66" t="s">
-        <v>46</v>
-      </c>
-      <c r="K33" s="71"/>
-      <c r="L33" s="71"/>
-      <c r="M33" s="71"/>
-      <c r="N33" s="68" t="s">
-        <v>47</v>
-      </c>
-      <c r="O33" s="66" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="68" t="s">
+      <c r="D34" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="E34" s="69">
+      <c r="E34" s="66">
         <f>MMULT($K$31:$N$31,D19:D22)</f>
         <v>-4</v>
       </c>
-      <c r="F34" s="69">
-        <f>HLOOKUP(D34,$D$16:$L$17,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G34" s="69">
+      <c r="F34" s="66">
+        <f>HLOOKUP(D34,$D$16:$L$17,2,0)*-1</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="66">
         <f>-(F34-E34)</f>
         <v>-4</v>
       </c>
-      <c r="I34" s="80">
+      <c r="I34" s="77">
         <v>8</v>
       </c>
       <c r="J34" s="2">
-        <f t="shared" ref="J34:O34" si="2">J26-$I34*J$37</f>
+        <f t="shared" ref="J34:O34" si="3">J26-$I34*J$37</f>
         <v>1</v>
       </c>
       <c r="K34" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L34" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M34" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-4</v>
       </c>
       <c r="N34" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O34" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
     </row>
@@ -4962,38 +4922,38 @@
         <v>-4</v>
       </c>
       <c r="F35" s="2">
-        <f>HLOOKUP(D35,$D$16:$L$17,2,0)</f>
+        <f t="shared" ref="F35:F38" si="4">HLOOKUP(D35,$D$16:$L$17,2,0)*-1</f>
         <v>0</v>
       </c>
       <c r="G35" s="2">
         <f>-(F35-E35)</f>
         <v>-4</v>
       </c>
-      <c r="I35" s="80">
+      <c r="I35" s="77">
         <v>1</v>
       </c>
       <c r="J35" s="2">
-        <f t="shared" ref="J35:O35" si="3">J27-$I35*J$37</f>
+        <f t="shared" ref="J35:O35" si="5">J27-$I35*J$37</f>
         <v>0</v>
       </c>
       <c r="K35" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="L35" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M35" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-0.5</v>
       </c>
       <c r="N35" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O35" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
@@ -5006,14 +4966,14 @@
         <v>1</v>
       </c>
       <c r="F36" s="2">
-        <f>HLOOKUP(D36,$D$16:$L$17,2,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G36" s="2">
         <f>-(F36-E36)</f>
         <v>1</v>
       </c>
-      <c r="I36" s="80">
+      <c r="I36" s="77">
         <v>1</v>
       </c>
       <c r="J36" s="2">
@@ -5021,23 +4981,23 @@
         <v>0</v>
       </c>
       <c r="K36" s="2">
-        <f t="shared" ref="K36:O36" si="4">K28-$I36*K$37</f>
+        <f t="shared" ref="K36:O36" si="6">K28-$I36*K$37</f>
         <v>0</v>
       </c>
       <c r="L36" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="M36" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.5</v>
       </c>
       <c r="N36" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O36" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -5050,38 +5010,38 @@
         <v>1</v>
       </c>
       <c r="F37" s="2">
-        <f>HLOOKUP(D37,$D$16:$L$17,2,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G37" s="2">
         <f>-(F37-E37)</f>
         <v>1</v>
       </c>
-      <c r="I37" s="80">
+      <c r="I37" s="77">
         <v>2</v>
       </c>
-      <c r="J37" s="80">
+      <c r="J37" s="77">
         <f>J29/$I37</f>
         <v>0</v>
       </c>
-      <c r="K37" s="80">
-        <f t="shared" ref="K37:O37" si="5">K29/$I37</f>
-        <v>0</v>
-      </c>
-      <c r="L37" s="80">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M37" s="80">
-        <f t="shared" si="5"/>
+      <c r="K37" s="77">
+        <f t="shared" ref="K37:O37" si="7">K29/$I37</f>
+        <v>0</v>
+      </c>
+      <c r="L37" s="77">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="77">
+        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
-      <c r="N37" s="80">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="O37" s="80">
-        <f t="shared" si="5"/>
+      <c r="N37" s="77">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O37" s="77">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5094,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F38" s="2">
-        <f>HLOOKUP(D38,$D$16:$L$17,2,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G38" s="2">
@@ -5103,110 +5063,110 @@
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B44" s="76" t="s">
-        <v>53</v>
-      </c>
-      <c r="D44" s="66" t="s">
+      <c r="B44" s="73" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="E44" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="E44" s="66" t="s">
-        <v>37</v>
-      </c>
-      <c r="G44" s="79" t="s">
+      <c r="G44" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="H44" s="66" t="s">
+      <c r="H44" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="J44" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="K44" s="71"/>
-      <c r="L44" s="71"/>
-      <c r="M44" s="71"/>
-      <c r="N44" s="68" t="s">
-        <v>48</v>
-      </c>
-      <c r="O44" s="66" t="s">
-        <v>45</v>
+      <c r="J44" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="K44" s="68"/>
+      <c r="L44" s="68"/>
+      <c r="M44" s="68"/>
+      <c r="N44" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="O44" s="63" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B45" s="76" t="s">
+      <c r="B45" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="D45" s="75" t="s">
+      <c r="D45" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="E45" s="74">
+      <c r="E45" s="71">
         <f>HLOOKUP(D45,$D$16:$M$17,2,0)*-1</f>
         <v>0</v>
       </c>
       <c r="F45" s="44"/>
-      <c r="G45" s="74">
+      <c r="G45" s="71">
         <f>HLOOKUP(G$44,$D$16:$M$22,4,0)</f>
         <v>5</v>
       </c>
-      <c r="H45" s="74">
+      <c r="H45" s="71">
         <f>O45/N45</f>
         <v>4.4444444444444446</v>
       </c>
       <c r="I45" s="44"/>
-      <c r="J45" s="74">
-        <v>1</v>
-      </c>
-      <c r="K45" s="74">
-        <v>0</v>
-      </c>
-      <c r="L45" s="74">
-        <v>0</v>
-      </c>
-      <c r="M45" s="74">
+      <c r="J45" s="71">
+        <v>1</v>
+      </c>
+      <c r="K45" s="71">
+        <v>0</v>
+      </c>
+      <c r="L45" s="71">
+        <v>0</v>
+      </c>
+      <c r="M45" s="71">
         <v>-4</v>
       </c>
-      <c r="N45" s="74">
+      <c r="N45" s="71">
         <f t="array" ref="N45:N48">MMULT(J45:M48,G45:G48)</f>
         <v>9</v>
       </c>
-      <c r="O45" s="74">
+      <c r="O45" s="71">
         <f>O34</f>
         <v>40</v>
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="D46" s="75" t="s">
+      <c r="D46" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="E46" s="74">
+      <c r="E46" s="71">
         <f>HLOOKUP(D46,$D$16:$M$17,2,0)*-1</f>
         <v>-1</v>
       </c>
       <c r="F46" s="44"/>
-      <c r="G46" s="74">
+      <c r="G46" s="71">
         <f>HLOOKUP(G$44,$D$16:$M$22,5,0)</f>
         <v>3</v>
       </c>
-      <c r="H46" s="74">
-        <f t="shared" ref="H46:H48" si="6">O46/N46</f>
+      <c r="H46" s="71">
+        <f t="shared" ref="H46:H48" si="8">O46/N46</f>
         <v>1.7142857142857142</v>
       </c>
       <c r="I46" s="44"/>
-      <c r="J46" s="74">
-        <v>0</v>
-      </c>
-      <c r="K46" s="74">
-        <v>1</v>
-      </c>
-      <c r="L46" s="74">
-        <v>0</v>
-      </c>
-      <c r="M46" s="74">
+      <c r="J46" s="71">
+        <v>0</v>
+      </c>
+      <c r="K46" s="71">
+        <v>1</v>
+      </c>
+      <c r="L46" s="71">
+        <v>0</v>
+      </c>
+      <c r="M46" s="71">
         <v>-0.5</v>
       </c>
-      <c r="N46" s="74">
+      <c r="N46" s="71">
         <v>3.5</v>
       </c>
-      <c r="O46" s="74">
+      <c r="O46" s="71">
         <f>O35</f>
         <v>6</v>
       </c>
@@ -5215,78 +5175,78 @@
       <c r="C47" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D47" s="73" t="s">
+      <c r="D47" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="E47" s="72">
+      <c r="E47" s="69">
         <f>HLOOKUP(D47,$D$16:$M$17,2,0)*-1</f>
         <v>-1</v>
       </c>
       <c r="F47" s="44"/>
-      <c r="G47" s="72">
+      <c r="G47" s="69">
         <f>HLOOKUP(G$44,$D$16:$M$22,6,0)</f>
         <v>2</v>
       </c>
-      <c r="H47" s="72">
-        <f t="shared" si="6"/>
+      <c r="H47" s="69">
+        <f t="shared" si="8"/>
         <v>1.6</v>
       </c>
       <c r="I47" s="44"/>
-      <c r="J47" s="72">
-        <v>0</v>
-      </c>
-      <c r="K47" s="72">
-        <v>0</v>
-      </c>
-      <c r="L47" s="72">
-        <v>1</v>
-      </c>
-      <c r="M47" s="72">
+      <c r="J47" s="69">
+        <v>0</v>
+      </c>
+      <c r="K47" s="69">
+        <v>0</v>
+      </c>
+      <c r="L47" s="69">
+        <v>1</v>
+      </c>
+      <c r="M47" s="69">
         <v>-0.5</v>
       </c>
-      <c r="N47" s="72">
+      <c r="N47" s="69">
         <v>2.5</v>
       </c>
-      <c r="O47" s="72">
+      <c r="O47" s="69">
         <f>O36</f>
         <v>4</v>
       </c>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="2"/>
-      <c r="D48" s="75" t="s">
+      <c r="D48" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="E48" s="74">
+      <c r="E48" s="71">
         <f>HLOOKUP(D48,$D$16:$M$17,2,0)*-1</f>
         <v>0</v>
       </c>
       <c r="F48" s="44"/>
-      <c r="G48" s="74">
+      <c r="G48" s="71">
         <f>HLOOKUP(G$44,$D$16:$M$22,7,0)</f>
         <v>-1</v>
       </c>
-      <c r="H48" s="74">
-        <f t="shared" si="6"/>
+      <c r="H48" s="71">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I48" s="44"/>
-      <c r="J48" s="74">
-        <v>0</v>
-      </c>
-      <c r="K48" s="74">
-        <v>0</v>
-      </c>
-      <c r="L48" s="74">
-        <v>0</v>
-      </c>
-      <c r="M48" s="74">
+      <c r="J48" s="71">
+        <v>0</v>
+      </c>
+      <c r="K48" s="71">
+        <v>0</v>
+      </c>
+      <c r="L48" s="71">
+        <v>0</v>
+      </c>
+      <c r="M48" s="71">
         <v>0.5</v>
       </c>
-      <c r="N48" s="74">
+      <c r="N48" s="71">
         <v>-0.5</v>
       </c>
-      <c r="O48" s="74">
+      <c r="O48" s="71">
         <f>O37</f>
         <v>0</v>
       </c>
@@ -5299,8 +5259,8 @@
       <c r="N49" s="2"/>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="J50" s="66" t="s">
-        <v>38</v>
+      <c r="J50" s="63" t="s">
+        <v>37</v>
       </c>
       <c r="K50" s="2">
         <f t="array" ref="K50:N50">MMULT(TRANSPOSE(E45:E48),J45:M48)</f>
@@ -5317,75 +5277,75 @@
       </c>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="D52" s="66" t="s">
+      <c r="D52" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="E52" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="F52" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="G52" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="J52" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="K52" s="68"/>
+      <c r="L52" s="68"/>
+      <c r="M52" s="68"/>
+      <c r="N52" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="O52" s="63" t="s">
         <v>43</v>
-      </c>
-      <c r="E52" s="66" t="s">
-        <v>42</v>
-      </c>
-      <c r="F52" s="67" t="s">
-        <v>40</v>
-      </c>
-      <c r="G52" s="67" t="s">
-        <v>39</v>
-      </c>
-      <c r="J52" s="66" t="s">
-        <v>46</v>
-      </c>
-      <c r="K52" s="71"/>
-      <c r="L52" s="71"/>
-      <c r="M52" s="71"/>
-      <c r="N52" s="68" t="s">
-        <v>48</v>
-      </c>
-      <c r="O52" s="66" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C53" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D53" s="68" t="s">
+      <c r="D53" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="E53" s="69">
+      <c r="E53" s="66">
         <f>MMULT($K$50:$N$50,E19:E22)</f>
         <v>-6</v>
       </c>
-      <c r="F53" s="69">
-        <f>HLOOKUP(D53,$D$16:$L$17,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G53" s="69">
+      <c r="F53" s="66">
+        <f>HLOOKUP(D53,$D$16:$L$17,2,0)*-1</f>
+        <v>0</v>
+      </c>
+      <c r="G53" s="66">
         <f>-(F53-E53)</f>
         <v>-6</v>
       </c>
-      <c r="I53" s="80">
+      <c r="I53" s="77">
         <v>9</v>
       </c>
-      <c r="J53" s="74">
-        <f t="shared" ref="J53:O53" si="7">J45-$I53*J$55</f>
-        <v>1</v>
-      </c>
-      <c r="K53" s="74">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L53" s="74">
-        <f t="shared" si="7"/>
+      <c r="J53" s="71">
+        <f t="shared" ref="J53:O53" si="9">J45-$I53*J$55</f>
+        <v>1</v>
+      </c>
+      <c r="K53" s="71">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L53" s="71">
+        <f t="shared" si="9"/>
         <v>-3.6</v>
       </c>
-      <c r="M53" s="74">
-        <f t="shared" si="7"/>
+      <c r="M53" s="71">
+        <f t="shared" si="9"/>
         <v>-2.2000000000000002</v>
       </c>
-      <c r="N53" s="74">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O53" s="74">
-        <f t="shared" si="7"/>
+      <c r="N53" s="71">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O53" s="71">
+        <f t="shared" si="9"/>
         <v>25.6</v>
       </c>
     </row>
@@ -5398,38 +5358,38 @@
         <v>1</v>
       </c>
       <c r="F54" s="2">
-        <f>HLOOKUP(D54,$D$16:$L$17,2,0)</f>
+        <f t="shared" ref="F54:F56" si="10">HLOOKUP(D54,$D$16:$L$17,2,0)*-1</f>
         <v>0</v>
       </c>
       <c r="G54" s="2">
         <f>-(F54-E54)</f>
         <v>1</v>
       </c>
-      <c r="I54" s="80">
+      <c r="I54" s="77">
         <v>3.5</v>
       </c>
-      <c r="J54" s="74">
-        <f t="shared" ref="J54:O54" si="8">J46-$I54*J$55</f>
-        <v>0</v>
-      </c>
-      <c r="K54" s="74">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="L54" s="74">
-        <f t="shared" si="8"/>
+      <c r="J54" s="71">
+        <f t="shared" ref="J54:O54" si="11">J46-$I54*J$55</f>
+        <v>0</v>
+      </c>
+      <c r="K54" s="71">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="L54" s="71">
+        <f t="shared" si="11"/>
         <v>-1.4000000000000001</v>
       </c>
-      <c r="M54" s="74">
-        <f t="shared" si="8"/>
+      <c r="M54" s="71">
+        <f t="shared" si="11"/>
         <v>0.20000000000000007</v>
       </c>
-      <c r="N54" s="74">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O54" s="74">
-        <f t="shared" si="8"/>
+      <c r="N54" s="71">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O54" s="71">
+        <f t="shared" si="11"/>
         <v>0.39999999999999947</v>
       </c>
     </row>
@@ -5442,38 +5402,38 @@
         <v>1</v>
       </c>
       <c r="F55" s="2">
-        <f>HLOOKUP(D55,$D$16:$L$17,2,0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G55" s="2">
         <f>-(F55-E55)</f>
         <v>1</v>
       </c>
-      <c r="I55" s="80">
+      <c r="I55" s="77">
         <v>2.5</v>
       </c>
-      <c r="J55" s="80">
+      <c r="J55" s="77">
         <f>J47/$I55</f>
         <v>0</v>
       </c>
-      <c r="K55" s="80">
-        <f t="shared" ref="K55:O55" si="9">K47/$I55</f>
-        <v>0</v>
-      </c>
-      <c r="L55" s="80">
-        <f t="shared" si="9"/>
+      <c r="K55" s="77">
+        <f t="shared" ref="K55:O55" si="12">K47/$I55</f>
+        <v>0</v>
+      </c>
+      <c r="L55" s="77">
+        <f t="shared" si="12"/>
         <v>0.4</v>
       </c>
-      <c r="M55" s="80">
-        <f t="shared" si="9"/>
+      <c r="M55" s="77">
+        <f t="shared" si="12"/>
         <v>-0.2</v>
       </c>
-      <c r="N55" s="80">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="O55" s="80">
-        <f t="shared" si="9"/>
+      <c r="N55" s="77">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="O55" s="77">
+        <f t="shared" si="12"/>
         <v>1.6</v>
       </c>
     </row>
@@ -5486,108 +5446,108 @@
         <v>-1</v>
       </c>
       <c r="F56" s="2">
-        <f>HLOOKUP(D56,$D$16:$L$17,2,0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G56" s="2">
         <f>-(F56-E56)</f>
         <v>-1</v>
       </c>
-      <c r="I56" s="80">
+      <c r="I56" s="77">
         <v>-0.5</v>
       </c>
-      <c r="J56" s="74">
+      <c r="J56" s="71">
         <f>J48-$I56*J$55</f>
         <v>0</v>
       </c>
-      <c r="K56" s="74">
-        <f t="shared" ref="K56:O56" si="10">K48-$I56*K$55</f>
-        <v>0</v>
-      </c>
-      <c r="L56" s="74">
-        <f t="shared" si="10"/>
+      <c r="K56" s="71">
+        <f t="shared" ref="K56:O56" si="13">K48-$I56*K$55</f>
+        <v>0</v>
+      </c>
+      <c r="L56" s="71">
+        <f t="shared" si="13"/>
         <v>0.2</v>
       </c>
-      <c r="M56" s="74">
-        <f t="shared" si="10"/>
+      <c r="M56" s="71">
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
-      <c r="N56" s="74">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="O56" s="74">
-        <f t="shared" si="10"/>
+      <c r="N56" s="71">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O56" s="71">
+        <f t="shared" si="13"/>
         <v>0.8</v>
       </c>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B62" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="D62" s="66" t="s">
+      <c r="B62" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="D62" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="E62" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="E62" s="66" t="s">
-        <v>37</v>
-      </c>
-      <c r="G62" s="79" t="s">
+      <c r="G62" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="H62" s="66" t="s">
+      <c r="H62" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="J62" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="K62" s="71"/>
-      <c r="L62" s="71"/>
-      <c r="M62" s="71"/>
-      <c r="N62" s="68" t="s">
-        <v>49</v>
-      </c>
-      <c r="O62" s="66" t="s">
-        <v>45</v>
+      <c r="J62" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="K62" s="68"/>
+      <c r="L62" s="68"/>
+      <c r="M62" s="68"/>
+      <c r="N62" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="O62" s="63" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B63" s="76" t="s">
+      <c r="B63" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="D63" s="75" t="s">
+      <c r="D63" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="E63" s="74">
+      <c r="E63" s="71">
         <f>HLOOKUP(D63,$D$16:$M$17,2,0)*-1</f>
         <v>0</v>
       </c>
       <c r="F63" s="44"/>
-      <c r="G63" s="74">
+      <c r="G63" s="71">
         <f>HLOOKUP(G$62,$D$16:$M$22,4,0)</f>
         <v>0</v>
       </c>
-      <c r="H63" s="74">
+      <c r="H63" s="71">
         <f>O63/N63</f>
         <v>7.1111111111111116</v>
       </c>
       <c r="I63" s="44"/>
-      <c r="J63" s="74">
-        <v>1</v>
-      </c>
-      <c r="K63" s="74">
-        <v>0</v>
-      </c>
-      <c r="L63" s="74">
+      <c r="J63" s="71">
+        <v>1</v>
+      </c>
+      <c r="K63" s="71">
+        <v>0</v>
+      </c>
+      <c r="L63" s="71">
         <v>-3.6</v>
       </c>
-      <c r="M63" s="74">
+      <c r="M63" s="71">
         <v>-2.2000000000000002</v>
       </c>
-      <c r="N63" s="74">
+      <c r="N63" s="71">
         <f t="array" ref="N63:N66">MMULT(J63:M66,G63:G66)</f>
         <v>3.6</v>
       </c>
-      <c r="O63" s="74">
+      <c r="O63" s="71">
         <f>O53</f>
         <v>25.6</v>
       </c>
@@ -5596,117 +5556,117 @@
       <c r="C64" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D64" s="73" t="s">
+      <c r="D64" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="E64" s="72">
+      <c r="E64" s="69">
         <f>HLOOKUP(D64,$D$16:$M$17,2,0)*-1</f>
         <v>-1</v>
       </c>
       <c r="F64" s="44"/>
-      <c r="G64" s="72">
+      <c r="G64" s="69">
         <f>HLOOKUP(G$62,$D$16:$M$22,5,0)</f>
         <v>0</v>
       </c>
-      <c r="H64" s="72">
-        <f t="shared" ref="H64:H66" si="11">O64/N64</f>
+      <c r="H64" s="69">
+        <f t="shared" ref="H64:H66" si="14">O64/N64</f>
         <v>0.28571428571428531</v>
       </c>
       <c r="I64" s="44"/>
-      <c r="J64" s="72">
-        <v>0</v>
-      </c>
-      <c r="K64" s="72">
-        <v>1</v>
-      </c>
-      <c r="L64" s="72">
+      <c r="J64" s="69">
+        <v>0</v>
+      </c>
+      <c r="K64" s="69">
+        <v>1</v>
+      </c>
+      <c r="L64" s="69">
         <v>-1.4000000000000001</v>
       </c>
-      <c r="M64" s="72">
+      <c r="M64" s="69">
         <v>0.20000000000000007</v>
       </c>
-      <c r="N64" s="72">
+      <c r="N64" s="69">
         <v>1.4000000000000001</v>
       </c>
-      <c r="O64" s="72">
+      <c r="O64" s="69">
         <f>O54</f>
         <v>0.39999999999999947</v>
       </c>
     </row>
     <row r="65" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C65" s="2"/>
-      <c r="D65" s="75" t="s">
+      <c r="D65" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="E65" s="74">
+      <c r="E65" s="71">
         <f>HLOOKUP(D65,$D$16:$M$17,2,0)*-1</f>
         <v>0</v>
       </c>
       <c r="F65" s="44"/>
-      <c r="G65" s="74">
+      <c r="G65" s="71">
         <f>HLOOKUP(G$62,$D$16:$M$22,6,0)</f>
         <v>-1</v>
       </c>
-      <c r="H65" s="74">
-        <f t="shared" si="11"/>
+      <c r="H65" s="71">
+        <f t="shared" si="14"/>
         <v>-4</v>
       </c>
       <c r="I65" s="44"/>
-      <c r="J65" s="74">
-        <v>0</v>
-      </c>
-      <c r="K65" s="74">
-        <v>0</v>
-      </c>
-      <c r="L65" s="74">
+      <c r="J65" s="71">
+        <v>0</v>
+      </c>
+      <c r="K65" s="71">
+        <v>0</v>
+      </c>
+      <c r="L65" s="71">
         <v>0.4</v>
       </c>
-      <c r="M65" s="74">
+      <c r="M65" s="71">
         <v>-0.2</v>
       </c>
-      <c r="N65" s="74">
+      <c r="N65" s="71">
         <v>-0.4</v>
       </c>
-      <c r="O65" s="74">
+      <c r="O65" s="71">
         <f>O55</f>
         <v>1.6</v>
       </c>
     </row>
     <row r="66" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C66" s="2"/>
-      <c r="D66" s="75" t="s">
+      <c r="D66" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="E66" s="74">
+      <c r="E66" s="71">
         <f>HLOOKUP(D66,$D$16:$M$17,2,0)*-1</f>
         <v>0</v>
       </c>
       <c r="F66" s="44"/>
-      <c r="G66" s="74">
+      <c r="G66" s="71">
         <f>HLOOKUP(G$62,$D$16:$M$22,7,0)</f>
         <v>0</v>
       </c>
-      <c r="H66" s="74">
-        <f t="shared" si="11"/>
+      <c r="H66" s="71">
+        <f t="shared" si="14"/>
         <v>-4</v>
       </c>
       <c r="I66" s="44"/>
-      <c r="J66" s="74">
-        <v>0</v>
-      </c>
-      <c r="K66" s="74">
-        <v>0</v>
-      </c>
-      <c r="L66" s="74">
+      <c r="J66" s="71">
+        <v>0</v>
+      </c>
+      <c r="K66" s="71">
+        <v>0</v>
+      </c>
+      <c r="L66" s="71">
         <v>0.2</v>
       </c>
-      <c r="M66" s="74">
+      <c r="M66" s="71">
         <v>0.4</v>
       </c>
-      <c r="N66" s="74">
+      <c r="N66" s="71">
         <v>-0.2</v>
       </c>
-      <c r="O66" s="74">
+      <c r="O66" s="71">
         <f>O56</f>
         <v>0.8</v>
       </c>
@@ -5719,8 +5679,8 @@
       <c r="N67" s="2"/>
     </row>
     <row r="68" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="J68" s="66" t="s">
-        <v>38</v>
+      <c r="J68" s="63" t="s">
+        <v>37</v>
       </c>
       <c r="K68" s="2">
         <f t="array" ref="K68:N68">MMULT(TRANSPOSE(E63:E66),J63:M66)</f>
@@ -5737,29 +5697,29 @@
       </c>
     </row>
     <row r="70" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="D70" s="66" t="s">
+      <c r="D70" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="E70" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="F70" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="G70" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="J70" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="K70" s="68"/>
+      <c r="L70" s="68"/>
+      <c r="M70" s="68"/>
+      <c r="N70" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="O70" s="63" t="s">
         <v>43</v>
-      </c>
-      <c r="E70" s="66" t="s">
-        <v>42</v>
-      </c>
-      <c r="F70" s="67" t="s">
-        <v>40</v>
-      </c>
-      <c r="G70" s="67" t="s">
-        <v>39</v>
-      </c>
-      <c r="J70" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="K70" s="71"/>
-      <c r="L70" s="71"/>
-      <c r="M70" s="71"/>
-      <c r="N70" s="68" t="s">
-        <v>49</v>
-      </c>
-      <c r="O70" s="66" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="71" spans="3:15" x14ac:dyDescent="0.2">
@@ -5771,38 +5731,38 @@
         <v>1</v>
       </c>
       <c r="F71" s="2">
-        <f>HLOOKUP(D71,$D$16:$L$17,2,0)</f>
+        <f>HLOOKUP(D71,$D$16:$L$17,2,0)*-1</f>
         <v>0</v>
       </c>
       <c r="G71" s="2">
         <f>-(F71-E71)</f>
         <v>1</v>
       </c>
-      <c r="I71" s="80">
+      <c r="I71" s="77">
         <v>3.6</v>
       </c>
-      <c r="J71" s="74">
-        <f t="shared" ref="J71:O71" si="12">J63-$I71*J$72</f>
-        <v>1</v>
-      </c>
-      <c r="K71" s="74">
-        <f t="shared" si="12"/>
+      <c r="J71" s="71">
+        <f t="shared" ref="J71:O71" si="15">J63-$I71*J$72</f>
+        <v>1</v>
+      </c>
+      <c r="K71" s="71">
+        <f t="shared" si="15"/>
         <v>-2.5714285714285712</v>
       </c>
-      <c r="L71" s="74">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="M71" s="74">
-        <f t="shared" si="12"/>
+      <c r="L71" s="71">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M71" s="71">
+        <f t="shared" si="15"/>
         <v>-2.7142857142857144</v>
       </c>
-      <c r="N71" s="74">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O71" s="74">
-        <f t="shared" si="12"/>
+      <c r="N71" s="71">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O71" s="71">
+        <f t="shared" si="15"/>
         <v>24.571428571428573</v>
       </c>
     </row>
@@ -5810,46 +5770,46 @@
       <c r="C72" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D72" s="68" t="s">
+      <c r="D72" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="E72" s="69">
+      <c r="E72" s="66">
         <f>MMULT($K$68:$N$68,H19:H22)</f>
         <v>-1.4000000000000001</v>
       </c>
-      <c r="F72" s="69">
-        <f>HLOOKUP(D72,$D$16:$L$17,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G72" s="69">
+      <c r="F72" s="66">
+        <f t="shared" ref="F72:F73" si="16">HLOOKUP(D72,$D$16:$L$17,2,0)*-1</f>
+        <v>0</v>
+      </c>
+      <c r="G72" s="66">
         <f>-(F72-E72)</f>
         <v>-1.4000000000000001</v>
       </c>
-      <c r="I72" s="80">
+      <c r="I72" s="77">
         <v>1.4000000000000001</v>
       </c>
-      <c r="J72" s="80">
+      <c r="J72" s="77">
         <f>J64/$I72</f>
         <v>0</v>
       </c>
-      <c r="K72" s="80">
-        <f t="shared" ref="K72:O72" si="13">K64/$I72</f>
+      <c r="K72" s="77">
+        <f t="shared" ref="K72:O72" si="17">K64/$I72</f>
         <v>0.71428571428571419</v>
       </c>
-      <c r="L72" s="80">
-        <f t="shared" si="13"/>
-        <v>-1</v>
-      </c>
-      <c r="M72" s="80">
-        <f t="shared" si="13"/>
+      <c r="L72" s="77">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="M72" s="77">
+        <f t="shared" si="17"/>
         <v>0.1428571428571429</v>
       </c>
-      <c r="N72" s="80">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="O72" s="80">
-        <f t="shared" si="13"/>
+      <c r="N72" s="77">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="O72" s="77">
+        <f t="shared" si="17"/>
         <v>0.28571428571428531</v>
       </c>
     </row>
@@ -5862,73 +5822,73 @@
         <v>0.20000000000000007</v>
       </c>
       <c r="F73" s="2">
-        <f>HLOOKUP(D73,$D$16:$L$17,2,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G73" s="2">
         <f>-(F73-E73)</f>
         <v>0.20000000000000007</v>
       </c>
-      <c r="I73" s="80">
+      <c r="I73" s="77">
         <v>-0.4</v>
       </c>
-      <c r="J73" s="74">
-        <f t="shared" ref="J73:O73" si="14">J65-$I73*J$72</f>
-        <v>0</v>
-      </c>
-      <c r="K73" s="74">
-        <f t="shared" si="14"/>
+      <c r="J73" s="71">
+        <f t="shared" ref="J73:O73" si="18">J65-$I73*J$72</f>
+        <v>0</v>
+      </c>
+      <c r="K73" s="71">
+        <f t="shared" si="18"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="L73" s="74">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="M73" s="74">
-        <f t="shared" si="14"/>
+      <c r="L73" s="71">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M73" s="71">
+        <f t="shared" si="18"/>
         <v>-0.14285714285714285</v>
       </c>
-      <c r="N73" s="74">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O73" s="74">
-        <f t="shared" si="14"/>
+      <c r="N73" s="71">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O73" s="71">
+        <f t="shared" si="18"/>
         <v>1.7142857142857142</v>
       </c>
     </row>
     <row r="74" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="I74" s="80">
+      <c r="I74" s="77">
         <v>-0.2</v>
       </c>
-      <c r="J74" s="74">
+      <c r="J74" s="71">
         <f>J66-$I74*J$72</f>
         <v>0</v>
       </c>
-      <c r="K74" s="74">
-        <f t="shared" ref="K74:O74" si="15">K66-$I74*K$72</f>
+      <c r="K74" s="71">
+        <f t="shared" ref="K74:O74" si="19">K66-$I74*K$72</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="L74" s="74">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="M74" s="74">
-        <f t="shared" si="15"/>
+      <c r="L74" s="71">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M74" s="71">
+        <f t="shared" si="19"/>
         <v>0.4285714285714286</v>
       </c>
-      <c r="N74" s="74">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="O74" s="74">
-        <f t="shared" si="15"/>
+      <c r="N74" s="71">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O74" s="71">
+        <f t="shared" si="19"/>
         <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="76" spans="3:15" x14ac:dyDescent="0.2">
       <c r="D76" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -5936,14 +5896,14 @@
     </row>
     <row r="77" spans="3:15" x14ac:dyDescent="0.2">
       <c r="D77" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
     </row>
     <row r="81" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="D81" s="82" t="s">
+      <c r="D81" s="79" t="s">
         <v>34</v>
       </c>
     </row>
@@ -6086,189 +6046,189 @@
       </c>
     </row>
     <row r="90" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B90" s="76" t="s">
-        <v>52</v>
-      </c>
-      <c r="D90" s="66" t="s">
+      <c r="B90" s="73" t="s">
+        <v>51</v>
+      </c>
+      <c r="D90" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="E90" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="E90" s="66" t="s">
-        <v>37</v>
-      </c>
-      <c r="G90" s="79" t="str">
+      <c r="G90" s="76" t="str">
         <f>D99</f>
         <v>x4</v>
       </c>
-      <c r="H90" s="66" t="s">
+      <c r="H90" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="J90" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="K90" s="71"/>
-      <c r="L90" s="71"/>
-      <c r="M90" s="71"/>
-      <c r="N90" s="68" t="s">
-        <v>57</v>
-      </c>
-      <c r="O90" s="66" t="s">
-        <v>45</v>
+      <c r="J90" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="K90" s="68"/>
+      <c r="L90" s="68"/>
+      <c r="M90" s="68"/>
+      <c r="N90" s="65" t="s">
+        <v>56</v>
+      </c>
+      <c r="O90" s="63" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="91" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B91" s="76" t="s">
+      <c r="B91" s="73" t="s">
         <v>34</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D91" s="73" t="s">
+      <c r="D91" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="E91" s="72">
+      <c r="E91" s="69">
         <f>HLOOKUP(D91,$D$82:$J$83,2,0)*-1</f>
         <v>0</v>
       </c>
-      <c r="G91" s="72">
+      <c r="G91" s="69">
         <f>G84</f>
         <v>0</v>
       </c>
-      <c r="H91" s="72">
+      <c r="H91" s="69">
         <f>O91/N91</f>
         <v>9.5555555555555571</v>
       </c>
-      <c r="J91" s="72">
-        <v>1</v>
-      </c>
-      <c r="K91" s="72">
+      <c r="J91" s="69">
+        <v>1</v>
+      </c>
+      <c r="K91" s="69">
         <v>-2.5714285714285712</v>
       </c>
-      <c r="L91" s="72">
-        <v>0</v>
-      </c>
-      <c r="M91" s="72">
+      <c r="L91" s="69">
+        <v>0</v>
+      </c>
+      <c r="M91" s="69">
         <v>-2.7142857142857144</v>
       </c>
-      <c r="N91" s="72">
+      <c r="N91" s="69">
         <f t="array" ref="N91:N94">MMULT(J91:M94,G91:G94)</f>
         <v>2.5714285714285712</v>
       </c>
-      <c r="O91" s="81">
+      <c r="O91" s="78">
         <f>O71</f>
         <v>24.571428571428573</v>
       </c>
     </row>
     <row r="92" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="D92" s="75" t="s">
+      <c r="D92" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="E92" s="74">
+      <c r="E92" s="71">
         <f>HLOOKUP(D92,$D$16:$M$17,2,0)*-1</f>
         <v>0</v>
       </c>
-      <c r="G92" s="74">
-        <f t="shared" ref="G92:G94" si="16">G85</f>
-        <v>-1</v>
-      </c>
-      <c r="H92" s="74">
-        <f t="shared" ref="H92:H94" si="17">O92/N92</f>
+      <c r="G92" s="71">
+        <f t="shared" ref="G92:G94" si="20">G85</f>
+        <v>-1</v>
+      </c>
+      <c r="H92" s="71">
+        <f t="shared" ref="H92:H94" si="21">O92/N92</f>
         <v>-0.39999999999999947</v>
       </c>
-      <c r="J92" s="74">
-        <v>0</v>
-      </c>
-      <c r="K92" s="74">
+      <c r="J92" s="71">
+        <v>0</v>
+      </c>
+      <c r="K92" s="71">
         <v>0.71428571428571419</v>
       </c>
-      <c r="L92" s="74">
-        <v>-1</v>
-      </c>
-      <c r="M92" s="74">
+      <c r="L92" s="71">
+        <v>-1</v>
+      </c>
+      <c r="M92" s="71">
         <v>0.1428571428571429</v>
       </c>
-      <c r="N92" s="74">
+      <c r="N92" s="71">
         <v>-0.71428571428571419</v>
       </c>
       <c r="O92">
-        <f t="shared" ref="O92:O94" si="18">O72</f>
+        <f t="shared" ref="O92:O94" si="22">O72</f>
         <v>0.28571428571428531</v>
       </c>
     </row>
     <row r="93" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="D93" s="75" t="s">
+      <c r="D93" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="E93" s="74">
+      <c r="E93" s="71">
         <f>HLOOKUP(D93,$D$82:$J$83,2,0)*-1</f>
         <v>4</v>
       </c>
-      <c r="G93" s="74">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H93" s="74">
-        <f t="shared" si="17"/>
+      <c r="G93" s="71">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="H93" s="71">
+        <f t="shared" si="21"/>
         <v>-6</v>
       </c>
-      <c r="J93" s="74">
-        <v>0</v>
-      </c>
-      <c r="K93" s="74">
+      <c r="J93" s="71">
+        <v>0</v>
+      </c>
+      <c r="K93" s="71">
         <v>0.2857142857142857</v>
       </c>
-      <c r="L93" s="74">
-        <v>0</v>
-      </c>
-      <c r="M93" s="74">
+      <c r="L93" s="71">
+        <v>0</v>
+      </c>
+      <c r="M93" s="71">
         <v>-0.14285714285714285</v>
       </c>
-      <c r="N93" s="74">
+      <c r="N93" s="71">
         <v>-0.2857142857142857</v>
       </c>
       <c r="O93">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1.7142857142857142</v>
       </c>
     </row>
     <row r="94" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="D94" s="75" t="s">
+      <c r="D94" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="E94" s="74">
+      <c r="E94" s="71">
         <f>HLOOKUP(D94,$D$82:$J$83,2,0)*-1</f>
         <v>3</v>
       </c>
-      <c r="G94" s="74">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H94" s="74">
-        <f t="shared" si="17"/>
+      <c r="G94" s="71">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="H94" s="71">
+        <f t="shared" si="21"/>
         <v>-6</v>
       </c>
-      <c r="J94" s="74">
-        <v>0</v>
-      </c>
-      <c r="K94" s="74">
+      <c r="J94" s="71">
+        <v>0</v>
+      </c>
+      <c r="K94" s="71">
         <v>0.14285714285714285</v>
       </c>
-      <c r="L94" s="74">
-        <v>0</v>
-      </c>
-      <c r="M94" s="74">
+      <c r="L94" s="71">
+        <v>0</v>
+      </c>
+      <c r="M94" s="71">
         <v>0.4285714285714286</v>
       </c>
-      <c r="N94" s="74">
+      <c r="N94" s="71">
         <v>-0.14285714285714285</v>
       </c>
       <c r="O94">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="96" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="J96" s="66" t="s">
-        <v>38</v>
+      <c r="J96" s="63" t="s">
+        <v>37</v>
       </c>
       <c r="K96" s="2">
         <f t="array" ref="K96:N96">MMULT(TRANSPOSE(E91:E94),J91:M94)</f>
@@ -6285,75 +6245,75 @@
       </c>
     </row>
     <row r="98" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="D98" s="66" t="s">
+      <c r="D98" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="E98" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="F98" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="G98" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="J98" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="K98" s="68"/>
+      <c r="L98" s="68"/>
+      <c r="M98" s="68"/>
+      <c r="N98" s="65" t="s">
+        <v>56</v>
+      </c>
+      <c r="O98" s="63" t="s">
         <v>43</v>
-      </c>
-      <c r="E98" s="66" t="s">
-        <v>42</v>
-      </c>
-      <c r="F98" s="67" t="s">
-        <v>40</v>
-      </c>
-      <c r="G98" s="67" t="s">
-        <v>39</v>
-      </c>
-      <c r="J98" s="66" t="s">
-        <v>46</v>
-      </c>
-      <c r="K98" s="71"/>
-      <c r="L98" s="71"/>
-      <c r="M98" s="71"/>
-      <c r="N98" s="68" t="s">
-        <v>57</v>
-      </c>
-      <c r="O98" s="66" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="99" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C99" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D99" s="68" t="s">
+      <c r="D99" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="E99" s="69">
+      <c r="E99" s="66">
         <f>MMULT($K$96:$N$96,G84:G87)</f>
         <v>-1.5714285714285714</v>
       </c>
-      <c r="F99" s="69">
-        <f>HLOOKUP(D99,$D$82:$J$83,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G99" s="69">
+      <c r="F99" s="66">
+        <f>HLOOKUP(D99,$D$82:$J$83,2,0)*-1</f>
+        <v>0</v>
+      </c>
+      <c r="G99" s="66">
         <f>-(F99-E99)</f>
         <v>-1.5714285714285714</v>
       </c>
-      <c r="I99" s="78">
+      <c r="I99" s="75">
         <v>2.5714285714285712</v>
       </c>
-      <c r="J99" s="80">
+      <c r="J99" s="77">
         <f>J91/$I99</f>
         <v>0.38888888888888895</v>
       </c>
-      <c r="K99" s="80">
-        <f t="shared" ref="K99:O99" si="19">K91/$I99</f>
-        <v>-1</v>
-      </c>
-      <c r="L99" s="80">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="M99" s="80">
-        <f t="shared" si="19"/>
+      <c r="K99" s="77">
+        <f t="shared" ref="K99:O99" si="23">K91/$I99</f>
+        <v>-1</v>
+      </c>
+      <c r="L99" s="77">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="M99" s="77">
+        <f t="shared" si="23"/>
         <v>-1.0555555555555558</v>
       </c>
-      <c r="N99" s="80">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="O99" s="80">
-        <f t="shared" si="19"/>
+      <c r="N99" s="77">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="O99" s="77">
+        <f t="shared" si="23"/>
         <v>9.5555555555555571</v>
       </c>
     </row>
@@ -6366,209 +6326,209 @@
         <v>-0.71428571428571441</v>
       </c>
       <c r="F100" s="2">
-        <f>HLOOKUP(D100,$D$82:$J$83,2,0)</f>
+        <f t="shared" ref="F100" si="24">HLOOKUP(D100,$D$82:$J$83,2,0)*-1</f>
         <v>0</v>
       </c>
       <c r="G100" s="2">
         <f>-(F100-E100)</f>
         <v>-0.71428571428571441</v>
       </c>
-      <c r="I100" s="78">
+      <c r="I100" s="75">
         <v>-0.71428571428571419</v>
       </c>
-      <c r="J100" s="74">
-        <f t="shared" ref="J100:O100" si="20">J92-$I100*J$99</f>
+      <c r="J100" s="71">
+        <f t="shared" ref="J100:O100" si="25">J92-$I100*J$99</f>
         <v>0.27777777777777779</v>
       </c>
-      <c r="K100" s="74">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="L100" s="74">
-        <f t="shared" si="20"/>
-        <v>-1</v>
-      </c>
-      <c r="M100" s="74">
-        <f t="shared" si="20"/>
+      <c r="K100" s="71">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="L100" s="71">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="M100" s="71">
+        <f t="shared" si="25"/>
         <v>-0.61111111111111116</v>
       </c>
-      <c r="N100" s="74">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="O100" s="74">
-        <f t="shared" si="20"/>
+      <c r="N100" s="71">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="O100" s="71">
+        <f t="shared" si="25"/>
         <v>7.1111111111111116</v>
       </c>
     </row>
     <row r="101" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="I101" s="78">
+      <c r="I101" s="75">
         <v>-0.2857142857142857</v>
       </c>
-      <c r="J101" s="74">
-        <f t="shared" ref="J101:O101" si="21">J93-$I101*J$99</f>
+      <c r="J101" s="71">
+        <f t="shared" ref="J101:O101" si="26">J93-$I101*J$99</f>
         <v>0.11111111111111112</v>
       </c>
-      <c r="K101" s="74">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="L101" s="74">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="M101" s="74">
-        <f t="shared" si="21"/>
+      <c r="K101" s="71">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="L101" s="71">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="M101" s="71">
+        <f t="shared" si="26"/>
         <v>-0.44444444444444448</v>
       </c>
-      <c r="N101" s="74">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="O101" s="74">
-        <f t="shared" si="21"/>
+      <c r="N101" s="71">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="O101" s="71">
+        <f t="shared" si="26"/>
         <v>4.4444444444444446</v>
       </c>
     </row>
     <row r="102" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="I102" s="78">
+      <c r="I102" s="75">
         <v>-0.14285714285714285</v>
       </c>
-      <c r="J102" s="74">
+      <c r="J102" s="71">
         <f>J94-$I102*J$99</f>
         <v>5.5555555555555559E-2</v>
       </c>
-      <c r="K102" s="74">
-        <f t="shared" ref="K102:O102" si="22">K94-$I102*K$99</f>
-        <v>0</v>
-      </c>
-      <c r="L102" s="74">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="M102" s="74">
-        <f t="shared" si="22"/>
+      <c r="K102" s="71">
+        <f t="shared" ref="K102:O102" si="27">K94-$I102*K$99</f>
+        <v>0</v>
+      </c>
+      <c r="L102" s="71">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M102" s="71">
+        <f t="shared" si="27"/>
         <v>0.27777777777777779</v>
       </c>
-      <c r="N102" s="74">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="O102" s="74">
-        <f t="shared" si="22"/>
+      <c r="N102" s="71">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="O102" s="71">
+        <f t="shared" si="27"/>
         <v>2.2222222222222223</v>
       </c>
     </row>
     <row r="108" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B108" s="76" t="s">
-        <v>53</v>
-      </c>
-      <c r="D108" s="66" t="s">
+      <c r="B108" s="73" t="s">
+        <v>52</v>
+      </c>
+      <c r="D108" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="E108" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="E108" s="66" t="s">
-        <v>37</v>
-      </c>
-      <c r="J108" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="K108" s="71"/>
-      <c r="L108" s="71"/>
-      <c r="M108" s="71"/>
+      <c r="J108" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="K108" s="68"/>
+      <c r="L108" s="68"/>
+      <c r="M108" s="68"/>
     </row>
     <row r="109" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B109" s="76" t="s">
+      <c r="B109" s="73" t="s">
         <v>34</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D109" s="75" t="s">
+      <c r="D109" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="E109" s="74">
+      <c r="E109" s="71">
         <f>HLOOKUP(D109,$D$82:$J$83,2,0)*-1</f>
         <v>0</v>
       </c>
-      <c r="J109" s="74">
+      <c r="J109" s="71">
         <v>0.38888888888888895</v>
       </c>
-      <c r="K109" s="74">
-        <v>-1</v>
-      </c>
-      <c r="L109" s="74">
-        <v>0</v>
-      </c>
-      <c r="M109" s="74">
+      <c r="K109" s="71">
+        <v>-1</v>
+      </c>
+      <c r="L109" s="71">
+        <v>0</v>
+      </c>
+      <c r="M109" s="71">
         <v>-1.0555555555555558</v>
       </c>
     </row>
     <row r="110" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="D110" s="75" t="s">
+      <c r="D110" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="E110" s="74">
+      <c r="E110" s="71">
         <f>HLOOKUP(D110,$D$16:$M$17,2,0)*-1</f>
         <v>0</v>
       </c>
-      <c r="J110" s="74">
+      <c r="J110" s="71">
         <v>0.27777777777777779</v>
       </c>
-      <c r="K110" s="74">
-        <v>0</v>
-      </c>
-      <c r="L110" s="74">
-        <v>-1</v>
-      </c>
-      <c r="M110" s="74">
+      <c r="K110" s="71">
+        <v>0</v>
+      </c>
+      <c r="L110" s="71">
+        <v>-1</v>
+      </c>
+      <c r="M110" s="71">
         <v>-0.61111111111111116</v>
       </c>
     </row>
     <row r="111" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="D111" s="75" t="s">
+      <c r="D111" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="E111" s="74">
+      <c r="E111" s="71">
         <f>HLOOKUP(D111,$D$82:$J$83,2,0)*-1</f>
         <v>4</v>
       </c>
-      <c r="J111" s="74">
+      <c r="J111" s="71">
         <v>0.11111111111111112</v>
       </c>
-      <c r="K111" s="74">
-        <v>0</v>
-      </c>
-      <c r="L111" s="74">
-        <v>0</v>
-      </c>
-      <c r="M111" s="74">
+      <c r="K111" s="71">
+        <v>0</v>
+      </c>
+      <c r="L111" s="71">
+        <v>0</v>
+      </c>
+      <c r="M111" s="71">
         <v>-0.44444444444444448</v>
       </c>
     </row>
     <row r="112" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="D112" s="75" t="s">
+      <c r="D112" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="E112" s="74">
+      <c r="E112" s="71">
         <f>HLOOKUP(D112,$D$82:$J$83,2,0)*-1</f>
         <v>3</v>
       </c>
-      <c r="J112" s="74">
+      <c r="J112" s="71">
         <v>5.5555555555555559E-2</v>
       </c>
-      <c r="K112" s="74">
-        <v>0</v>
-      </c>
-      <c r="L112" s="74">
-        <v>0</v>
-      </c>
-      <c r="M112" s="74">
+      <c r="K112" s="71">
+        <v>0</v>
+      </c>
+      <c r="L112" s="71">
+        <v>0</v>
+      </c>
+      <c r="M112" s="71">
         <v>0.27777777777777779</v>
       </c>
     </row>
     <row r="114" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="J114" s="66" t="s">
-        <v>38</v>
+      <c r="J114" s="63" t="s">
+        <v>37</v>
       </c>
       <c r="K114" s="2">
         <f t="array" ref="K114:N114">MMULT(TRANSPOSE(E109:E112),J109:M112)</f>
@@ -6585,35 +6545,35 @@
       </c>
     </row>
     <row r="116" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="D116" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="E116" s="66" t="s">
+      <c r="D116" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="F116" s="67" t="s">
-        <v>40</v>
-      </c>
-      <c r="G116" s="67" t="s">
+      <c r="E116" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="F116" s="64" t="s">
         <v>39</v>
+      </c>
+      <c r="G116" s="64" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="117" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C117" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D117" s="75" t="s">
+      <c r="D117" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="E117" s="74">
+      <c r="E117" s="71">
         <f>MMULT($K$114:$N$114,F84:F87)</f>
         <v>0.61111111111111116</v>
       </c>
-      <c r="F117" s="74">
-        <f>HLOOKUP(D117,$D$82:$J$83,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G117" s="74">
+      <c r="F117" s="71">
+        <f>HLOOKUP(D117,$D$82:$J$83,2,0)*-1</f>
+        <v>0</v>
+      </c>
+      <c r="G117" s="71">
         <f>-(F117-E117)</f>
         <v>0.61111111111111116</v>
       </c>
@@ -6627,7 +6587,7 @@
         <v>0.94444444444444453</v>
       </c>
       <c r="F118" s="2">
-        <f>HLOOKUP(D118,$D$82:$J$83,2,0)</f>
+        <f>HLOOKUP(D118,$D$82:$J$83,2,0)*-1</f>
         <v>0</v>
       </c>
       <c r="G118" s="2">
@@ -6637,39 +6597,39 @@
     </row>
     <row r="122" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B122" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="123" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B123" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="125" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="D125" s="66" t="s">
+      <c r="D125" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="E125" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="E125" s="66" t="s">
-        <v>37</v>
-      </c>
-      <c r="F125" s="66" t="s">
-        <v>45</v>
-      </c>
-      <c r="H125" s="66" t="s">
+      <c r="F125" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="H125" s="63" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="126" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
-      <c r="D126" s="75" t="s">
+      <c r="D126" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="E126" s="74">
+      <c r="E126" s="71">
         <f>HLOOKUP(D126,$D$82:$J$83,2,0)*-1</f>
         <v>0</v>
       </c>
-      <c r="F126" s="70">
+      <c r="F126" s="67">
         <f>O99</f>
         <v>9.5555555555555571</v>
       </c>
@@ -6681,43 +6641,43 @@
     </row>
     <row r="127" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B127" s="3"/>
-      <c r="D127" s="75" t="s">
+      <c r="D127" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="E127" s="74">
+      <c r="E127" s="71">
         <f>HLOOKUP(D127,$D$82:$J$83,2,0)*-1</f>
         <v>0</v>
       </c>
-      <c r="F127" s="70">
-        <f t="shared" ref="F127:F129" si="23">O100</f>
+      <c r="F127" s="67">
+        <f t="shared" ref="F127:F129" si="28">O100</f>
         <v>7.1111111111111116</v>
       </c>
     </row>
     <row r="128" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B128" s="3"/>
-      <c r="D128" s="75" t="s">
+      <c r="D128" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="E128" s="74">
+      <c r="E128" s="71">
         <f>HLOOKUP(D128,$D$82:$J$83,2,0)*-1</f>
         <v>4</v>
       </c>
-      <c r="F128" s="70">
-        <f t="shared" si="23"/>
+      <c r="F128" s="67">
+        <f t="shared" si="28"/>
         <v>4.4444444444444446</v>
       </c>
     </row>
     <row r="129" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B129" s="3"/>
-      <c r="D129" s="75" t="s">
+      <c r="D129" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="E129" s="74">
+      <c r="E129" s="71">
         <f>HLOOKUP(D129,$D$82:$J$83,2,0)*-1</f>
         <v>3</v>
       </c>
-      <c r="F129" s="70">
-        <f t="shared" si="23"/>
+      <c r="F129" s="67">
+        <f t="shared" si="28"/>
         <v>2.2222222222222223</v>
       </c>
     </row>

--- a/simplex_revisado.xlsx
+++ b/simplex_revisado.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/acsjunior/Documents/Projects/ppgmne-mnum7078/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC55E31-CD78-F74D-99F4-81378CC952C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39251222-F9C1-6944-A86B-DA98662D8D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{EAF9DF70-EF61-6647-8354-71546881E2E1}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" activeTab="2" xr2:uid="{EAF9DF70-EF61-6647-8354-71546881E2E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Simplex" sheetId="1" r:id="rId1"/>
     <sheet name="Simplex revisado" sheetId="3" r:id="rId2"/>
+    <sheet name="dualidade" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="73">
   <si>
     <t>Max z = 3x1 + 4x2</t>
   </si>
@@ -206,6 +207,45 @@
   </si>
   <si>
     <t>1x1 + 2x2 &gt;= 4</t>
+  </si>
+  <si>
+    <t>Primal</t>
+  </si>
+  <si>
+    <t>sa:</t>
+  </si>
+  <si>
+    <t>Ax &lt;= b</t>
+  </si>
+  <si>
+    <t>x &gt;= 0</t>
+  </si>
+  <si>
+    <t>Dual</t>
+  </si>
+  <si>
+    <t>y &gt;= 0</t>
+  </si>
+  <si>
+    <t>Min w = b^t*y</t>
+  </si>
+  <si>
+    <t>Max z = c^t*x</t>
+  </si>
+  <si>
+    <t>yA &gt;= c (ou A^t*y &gt;= c)</t>
+  </si>
+  <si>
+    <t>Min z = c^t*x</t>
+  </si>
+  <si>
+    <t>Ax &gt;= b</t>
+  </si>
+  <si>
+    <t>Max w = b^t*y</t>
+  </si>
+  <si>
+    <t>yA &lt;= c</t>
   </si>
 </sst>
 </file>
@@ -969,7 +1009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0E0CC4-01A9-D14C-9388-46A784C5AEB8}">
   <dimension ref="A1:P119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
@@ -4174,8 +4214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46E01435-9D0E-2B44-A85C-07D10F261D9D}">
   <dimension ref="A1:O130"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E130" sqref="E130"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6687,4 +6727,95 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15843148-2834-7441-B1EF-A747070EAE0D}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>